--- a/Documentation/Panel KeyBoard Layout.xlsx
+++ b/Documentation/Panel KeyBoard Layout.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambition\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mobin3\Mobin3_src\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="0" windowWidth="27180" windowHeight="14715"/>
+    <workbookView xWindow="4410" yWindow="0" windowWidth="27180" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Keys" sheetId="1" r:id="rId1"/>
@@ -385,12 +385,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,25 +420,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -935,10 +936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,228 +950,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>39</v>
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>40</v>
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>41</v>
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>42</v>
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>43</v>
+      <c r="A15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>44</v>
+      <c r="A16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>45</v>
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>46</v>
+      <c r="A18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>47</v>
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
+      <c r="A21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>51</v>
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>52</v>
+      <c r="A23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>53</v>
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>54</v>
+      <c r="A25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>55</v>
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>56</v>
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1202,87 +1198,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Documentation/Panel KeyBoard Layout.xlsx
+++ b/Documentation/Panel KeyBoard Layout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -233,6 +233,15 @@
   <si>
     <t>0x00: OFF 
 0x01: ON</t>
+  </si>
+  <si>
+    <t>Byte 6</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0x00</t>
   </si>
 </sst>
 </file>
@@ -411,6 +420,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,9 +431,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,11 +959,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -964,7 +973,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1004,169 +1013,177 @@
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1184,7 +1201,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,15 +1215,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1228,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">

--- a/Documentation/Panel KeyBoard Layout.xlsx
+++ b/Documentation/Panel KeyBoard Layout.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="0" windowWidth="27180" windowHeight="14715" activeTab="1"/>
+    <workbookView xWindow="4410" yWindow="0" windowWidth="27180" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Keys" sheetId="1" r:id="rId1"/>
     <sheet name="Command" sheetId="2" r:id="rId2"/>
     <sheet name="Feedback" sheetId="3" r:id="rId3"/>
+    <sheet name="Wiring" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>0xA7</t>
-  </si>
-  <si>
-    <t>Baudrate: 9600</t>
   </si>
   <si>
     <t>Command</t>
@@ -242,13 +240,52 @@
   </si>
   <si>
     <t>0x00</t>
+  </si>
+  <si>
+    <t>Jetson RTSO Carrier Pinout</t>
+  </si>
+  <si>
+    <t>Serial Board to Jetson UART Wiring</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Rx+</t>
+  </si>
+  <si>
+    <t>Rx-</t>
+  </si>
+  <si>
+    <t>Tx-</t>
+  </si>
+  <si>
+    <t>Tx+</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Baudrate: 115200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +321,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +358,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,9 +483,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +491,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,6 +526,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>112567</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>164521</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>920257</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>164521</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>380998</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>164521</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>686910</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>164521</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4100" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,11 +1147,6 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -947,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,11 +1168,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -981,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -992,31 +1201,33 @@
         <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1024,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1032,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1040,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1048,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1056,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1064,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1072,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1080,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1088,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1096,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1104,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1112,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1120,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1128,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1136,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1144,7 +1355,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1152,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1160,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1168,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1176,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1184,12 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1201,7 +1413,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,15 +1427,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1245,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1253,10 +1465,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -1276,27 +1488,27 @@
         <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>66</v>
+      <c r="C5" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1305,4 +1517,332 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="22" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="G2:P9"/>
+    <mergeCell ref="A2:E9"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>923925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4100" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4100" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>